--- a/menu.xlsx
+++ b/menu.xlsx
@@ -29,96 +29,560 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>菜单名称</t>
   </si>
   <si>
-    <t>菜单描述</t>
-  </si>
-  <si>
-    <t>主站工作票关联数据采集</t>
-  </si>
-  <si>
-    <t>主站工作票关联数据采集功能通过预定义接口从作业计划管理、电子工作票及运维日志等外部业务系统自动抽取作业内容、执行人员、涉及设备等结构化数据，采用每日定时增量同步机制并依赖源系统的RESTful API服务实现数据一致性。系统接收数据流时执行完整性校验（校验字段包括作业编号规范性、人员工号有效性、设备编码合法性，单批次处理上限5000条记录），对异常数据标记并暂存至待修复队列。采集成功的记录持久化存储至作业信息库（主表含作业ID、作业类型、负责人、操作设备清单、计划开始/结束时间、实际工时、风险标识字段），同时通过数据清洗引擎标准化设备编码与人员部门映射关系。处理完成后向风险智能分析模块推送结构化作业数据集（经Kafka消息队列异步传输，数据包含作业全量属性、采集时间戳及标准化状态码），驱动后续AI模型进行风险规则匹配。系统支持安监人员按作业时间段、责任班组、设备类型等组合条件实时检索采集记录（返回结果集展示作业概要、关联风险等级、数据来源系统及采集异常提示），并可生成周期性的数据采集质量报告（输出PDF格式统计图表，呈现各系统数据完整率、异常分布及趋势分析）。</t>
-  </si>
-  <si>
-    <t>自动化主站作业历史数据接入</t>
-  </si>
-  <si>
-    <t>自动化主站作业历史数据接入功能通过多源数据整合机制，实现历史工作票、作业标准、规程文档、风险案例及违章定义的集中采集与标准化处理。用户可通过系统管理端批量上传结构化数据文件（支持JSON/XML/Excel格式，单次最大承载量5000条记录），系统自动执行格式校验与逻辑完整性检查（如校验工作票编号唯一性、风险等级枚举值合规性），并对非结构化文档进行智能解析与关键字段提取。该过程依赖外部自动化主站知识库服务（通过RESTful API每日增量同步作业标准模板与违章判定规则，响应延迟需低于150ms），确保外部基准数据的实时一致性。经清洗转换的数据持久化存储至作业历史主题库（核心实体含工作票主表——字段包括票号、作业类型、风险等级、控制措施摘要、违章标识；规程知识表——存储条款编号、适用场景、修订版本；风险案例表——记录案例编码、历史后果、处置时效），并通过血缘分析主站作业风险管控意识识别模型建立数据关联图谱。处理完成后，系统生成数据接入质量报告（包含成功入库率、异常数据分布、字段填充度统计，通过Kafka消息队列实时推送至风险智能体分析模块），同时触发缓存预热机制提升后续查询性能。授权用户可通过多维度条件（按作业时间区间、风险类型、责任部门、违章状态组合筛选）实时检索完整历史数据集，返回结果集支持分页展示并关联原始文档快照与衍生风险标签。</t>
-  </si>
-  <si>
-    <t>主站工作票数据清洗与处理</t>
-  </si>
-  <si>
-    <t>主站工作票数据清洗与处理功能通过接收来自全省各自动化主站作业系统的多源异构工作票数据（输入数据包括作业编号、作业类型、操作人员、时间戳、风险描述等字段，支持JSON/XML/CSV格式文件批量导入或API实时传输，单次处理规模可达万级记录，系统自动执行格式合规性校验与关键字段完整性检查），调用内置数据解析引擎对非结构化文本进行标准化映射。处理过程中依赖外部自动化主站知识库服务（每日定时同步作业规程、历史违章案例等参考数据，通过RESTful接口实时获取最新风险规则，确保数据语义一致性），并将清洗后的结构化数据持久化存储至作业风险主数据表（实体含作业ID、标准化风险点清单、控制措施编码、处理状态标记、数据质量评分及版本哈希值）。系统基于配置的转换规则库对原始数据执行去重、补全与术语归一化操作，生成符合智能体分析要求的统一数据对象（输出结果以二进制格式写入消息中间件，推送至主站作业风险管控意识识别模型，同时生成数据清洗质量报告，包含处理成功率、异常数据分布及修正建议）。用户可通过图形化界面实时检索已处理的工作票记录（支持按作业时间范围、所属厂站、风险等级组合条件查询，返回字段包括标准化风险点摘要、数据清洗状态、关联作业上下文及处理时间戳），并为后续风险智能评估流程提供高质量数据输入。</t>
-  </si>
-  <si>
-    <t>关键作业风险点智能识别</t>
-  </si>
-  <si>
-    <t>关键作业风险点智能识别功能通过集成作业上下文数据与自动化主站作业知识库，运用自然语言处理模型和规则引擎实现风险要素的自动化提取与评估。系统接收来自运维人员输入的作业基本信息（包括作业类型、设备范围、操作步骤等结构化数据，支持单次或批量导入，并执行非空校验与逻辑关联性验证），同时实时调用知识库服务接口（依赖全省主站作业知识图谱的RESTful API，每日同步更新作业规程、历史违章案例等核心数据，调用频率达每秒5-10次）。识别过程中，系统持久化存储动态生成的风险特征矩阵（字段含作业编号、风险点编码、风险描述、关联控制措施、置信度评分、更新时间），并通过规则引擎匹配作业场景与知识库中的典型风险模式，结合NLP模型解析非结构化作业描述文本。处理结果以结构化风险清单形式输出至作业风险评估界面（按风险等级排序展示关键风险点及对应控制建议，同步推送至工作票审核队列并生成实时预警消息）。用户可通过多维度条件检索历史识别记录（支持按作业类型、时间范围、风险等级组合查询，返回风险点详情、处置状态及关联作业数量统计），为全省自动化主站作业的闭环管理提供数据支撑。</t>
-  </si>
-  <si>
-    <t>风险控制措施智能生成</t>
-  </si>
-  <si>
-    <t>风险控制措施智能生成功能基于主站作业风险管控智能体的AI模型，在处理自动化主站作业风险评估时，针对系统识别或用户提交的关键风险点（如作业类型、风险等级、描述文本），通过Web界面或API接口接收输入数据（输入元素包括风险点ID、作业场景、风险描述、提交人员，系统执行格式校验与必填项验证，单次批量处理上限为50个风险点）。该功能实时调用外部自动化主站作业知识库服务（采用RESTful API同步交互，日均请求量约2000次，确保控制措施数据的时效性与一致性），通过自然语言处理算法匹配风险特征与知识库中的措施模板，匹配置信度阈值设定为85%。处理过程中，系统持久化维护风险点主表（字段含风险点ID、作业分类、风险描述、识别时间、状态标识）及措施映射表（字段包括措施ID、关联风险点ID、措施内容、优先级、生效标志），并动态更新匹配结果。逻辑处理完成后，系统生成结构化控制措施建议列表（输出内容包含风险点ID、匹配措施详情、置信度评分及实施优先级，通过消息队列推送至风险评估报告生成模块，同时以JSON格式返回至用户操作界面）。用户可实时通过多条件组合（如作业类型、时间范围、风险状态）查询历史生成记录（返回结果集包括风险点摘要、措施建议、生成时间、处理状态），并支持结果导出为标准化PDF分析报告，用于作业薄弱点总结与闭环管理。</t>
-  </si>
-  <si>
-    <t>风险等级量化计算</t>
-  </si>
-  <si>
-    <t>风险等级量化计算功能通过接收来自风险识别模块或人工输入的待评估风险点数据（输入元素包括风险描述、作业类型、设备编号等核心属性，支持单条录入或Excel批量导入，系统对数据格式进行非空校验与枚举值范围验证，单批次处理上限为500条记录），调用人工智能预测模型接口（每日异步调用知识库平台的风险概率预测服务，依赖实时更新的主站作业历史数据库进行模型参数校准，数据同步周期为4小时）对风险发生概率与影响程度进行量化分析。处理逻辑依据内置风险矩阵算法将概率估值（0-1区间）与影响得分（1-5级）映射为综合风险等级（低/中/高/极高），计算结果持久化存储至风险量化主表（字段含风险点ID、作业阶段、概率值、影响值、风险等级、计算时间、模型版本号）。系统自动生成量化分析摘要（通过概率影响乘积公式得出风险优先级排序，结构化输出至风险管理驾驶舱大屏及PDF分析报告，经消息中间件向作业审批流程推送等级预警通知）。用户可在作业评估工作台实时检索历史量化结果（支持按作业时间范围、风险等级、责任部门组合查询，返回字段包括风险点描述、量化数值、等级变化趋势图及关联控制措施清单），同时支持导出指定周期的风险等级分布统计表（生成含概率分布直方图与影响维度聚合数据的Excel文件）。</t>
-  </si>
-  <si>
-    <t>操作行为合规性校验</t>
-  </si>
-  <si>
-    <t>操作行为合规性校验功能通过接收用户以JSON格式批量提交的工作票操作序列（单次最多处理100条记录，系统自动校验数据结构的完整性与必填字段合规性），实时调用外部人工智能分析服务（每次校验请求同步传输操作步骤列表并返回违规概率评分）与内部标准作业流程知识库（持久化存储于主站作业流程表，字段涵盖流程编号、步骤顺序、必需操作项、风险控制等级）进行多维度智能比对。系统基于规则引擎检测操作顺序偏离、关键步骤遗漏等程序性违章，当AI模型置信度阈值超过90%时自动标记违规项，并更新工作票风险状态库（字段含校验时间戳、违规类型编码、风险影响系数）。处理逻辑完成后，动态生成结构化合规分析报告（输出内容包含工作票唯一标识、违规明细清单、风险等级映射及修正措施建议，通过Kafka消息中间件实时推送至数据大屏）。授权用户可通过组合条件（如工作票号、操作时段、违规状态）实时检索历史校验记录，返回结果集展示校验时间、操作序列摘要、违规详情及处理进度，并支持导出Excel格式的统计报表用于周期性审计分析。</t>
-  </si>
-  <si>
-    <t>作业违章事件识别记录</t>
-  </si>
-  <si>
-    <t>作业违章事件识别记录功能通过接收来自自动化主站监控系统实时推送的违章事件原始数据（包含作业编号、操作行为、时间戳、设备标识等核心字段，系统对数据完整性进行校验并过滤重复记录），调用内嵌主站作业风险管控意识识别模型（采用同步调用机制对每起事件进行实时语义解析与模式匹配）实现违章类型的智能判定。处理过程中，系统依据预设规则库对事件打上风险等级标签（如严重违规、一般缺陷）并归入三类违章目录，同时将结构化结果写入作业违章档案库（持久化存储字段含事件ID、作业流水号、违章分类编码、风险标签、判定依据、处理状态、归档时间戳），并与主站作业知识库建立关联映射。处理完成后，系统自动生成违章分析摘要（通过风险分析算法计算风险指数，结合历史违规频次输出薄弱点排名）推送至风险管控驾驶舱（以结构化报文形式经消息中间件分发），并触发实时短信告警。用户可在稽查终端按作业时间段、责任班组、违章类别等组合条件查询归档记录（返回结果集包含事件编号、关联作业信息、标签详情、处理进展及风险评分），支持导出周期统计报表（生成含趋势分析图表及整改建议的PDF文档）用于后续督查决策。</t>
-  </si>
-  <si>
-    <t>作业风险预评估报告生成</t>
-  </si>
-  <si>
-    <t>作业风险预评估报告生成功能基于人工智能模型对自动化主站作业的违章历史与知识库内容进行综合分析，用户在发起作业申请时通过系统界面提交作业类型、设备范围、操作步骤及环境参数等核心信息（输入数据需符合预设格式规范，包括必填字段校验、作业编码唯一性验证及危险等级分类逻辑，支持单次或批量作业数据导入，最大并发处理量为50项作业）。系统实时调用自动化主站作业知识库接口（依赖分布式知识图谱服务，每项作业触发至少3次语义匹配查询，通过增量同步机制更新风险案例库）及主站作业风险管控意识识别模型，结合输入信息生成动态风险评估矩阵。处理过程中持久化存储作业风险主表（字段含作业ID、风险点ID、风险描述、可能性等级、影响程度、控制措施文本、措施优先级、状态标记）及措施关联表（字段含措施ID、适用作业类型、实施步骤、参考法规条款），通过规则引擎计算风险权重并匹配历史违章模式。系统输出结构化预评估报告（报告内容包含关键风险点清单、控制措施执行顺序、薄弱环节量化评分及应对时限要求，采用基于加权风险值的优先级排序算法，生成PDF/HTML双格式文档，通过消息中间件推送告警服务）。用户可在报告生成后通过多维度条件（支持按作业时间、设备单元、风险等级、责任部门组合检索，返回报告编号、风险点摘要、措施状态、生成时间等字段，结果集默认按风险值降序排列且支持分页预览）实时追溯历史评估记录，同时支持调度中心批量导出周期风险趋势分析（以Excel形式输出作业类型分布、高频风险点统计及措施执行效果指标，用于宏观决策支持）。</t>
-  </si>
-  <si>
-    <t>违章检查分析报告生成</t>
-  </si>
-  <si>
-    <t>违章检查分析报告生成功能通过系统界面或工作票集成接口接收自动化主站作业的原始数据（包括作业类型、操作记录、设备状态及人员信息等输入元素，系统对数据完整性、格式规范性执行自动校验，支持单次批量处理最多50项作业记录），在处理过程中实时调用人工智能平台模型接口（外部依赖，采用异步调用机制，日均请求量约5000次）及自动化主站作业知识库（外部引用，通过定时增量同步更新风险规则库），基于多维度规则与历史数据对比识别违章特征。分析结果持久化存储至违章报告主表（核心字段含报告编号、作业流水号、违章事实描述、违反条款编号、严重性等级指数、整改措施文本、模型置信度、生成时间戳），并通过风险量化计算模型综合评估风险等级（结合条款权重系数与历史违章频次生成百分制评级）。系统自动生成结构化违章分析报告（输出内容整合事实摘要、条款依据映射、风险量化结果及定制化整改建议），以PDF/Excel格式通过消息中心推送至安全监察人员及作业责任人，同时支持按时间范围、作业班组、违章类型等组合条件实时检索历史报告（返回结果集包含报告编号、严重性等级、整改状态及关键事实片段，默认按生成时间倒序排列最多100条记录）。</t>
-  </si>
-  <si>
-    <t>作业安全总结报告生成</t>
-  </si>
-  <si>
-    <t>在作业安全总结报告生成功能中，系统于作业完成时自动触发报告生成流程，通过作业管理接口接收作业标识、完成时间及基础元数据（输入数据需符合状态校验规则，确保作业处于“已结束”且数据完整性验证通过），随即调用主站作业风险管控意识识别模型并关联自动化主站作业知识库（外部引用标准化风险规则库，通过定时增量同步机制维护知识实体版本）。处理核心基于多维数据构建作业风险主题域（持久化存储作业编号、风险点清单、控制措施有效性指标、绩效得分、生成时间戳等实体属性），结合AI输出动态评估控制措施覆盖度与违规模式，通过加权计算规则生成风险指数。系统最终输出结构化总结报告（内容涵盖整体风险控制成效、薄弱环节分布、绩效对比分析，以PDF格式通过消息中心推送至调度台及作业责任人），同时支持在报告工作台进行历史追溯（可通过作业类型、时间区间、风险等级组合筛选，返回报告概要、生成状态及可视化图表链接），实现从数据采集、智能分析到成果交付的端到端自动化闭环。</t>
-  </si>
-  <si>
-    <t>主站作业风险报告模板管理</t>
-  </si>
-  <si>
-    <t>主站作业风险报告模板管理功能通过Web配置界面接收用户输入的模板定义数据（包括模板名称、风险分类体系、控制措施框架、评分权重矩阵等核心元素，输入时强制校验字段格式合规性与逻辑完整性，支持单次批量导入最多20个模板配置），系统将验证通过的模板结构持久化存储至模板库主表（存储模板ID、版本号、生效状态、配置参数JSON、创建人及时间戳等字段），并实时调用自动化主站知识库API（每日通过增量同步机制更新基准风险条目）进行模板内容与行业标准的一致性核验。处理引擎根据模板配置动态生成风险点映射规则，结合AI分析模型（集成违章识别智能体服务，每次模板发布时触发合规性预测）自动输出模板优化建议报告（含模板覆盖度评分、缺失风险维度清单、推荐控制措施，通过消息中间件推送至管控平台及指定管理员邮箱）。用户可通过多维度条件（模板类型、适用作业场景、创建时间段）实时检索模板列表（返回模板基础信息、启用状态、最近修改记录及关联作业数量），并触发模板批量导出功能（生成标准化的Excel模板手册，包含全量配置参数、使用说明及版本对比日志）。所有模板操作日志均同步至审计轨迹表，确保可追溯性与版本管控。</t>
-  </si>
-  <si>
-    <t>主站作业风险预警信息推送</t>
-  </si>
-  <si>
-    <t>主站作业风险预警信息推送功能基于人工智能模型对自动化主站作业流程进行实时监控与分析，系统通过内置规则引擎与机器学习算法自动识别高风险操作或严重违章行为。系统接收来自作业监控模块的实时数据流（包括作业类型、操作步骤、设备状态等结构化参数），结合自动化主站作业知识库接口（依赖外部知识库服务，每日同步更新风险模式库与历史违章数据）进行风险模式匹配与置信度校验，当风险评分超过预设阈值时立即触发预警机制。识别过程中，系统将风险事件详情（如作业编号、风险等级、违章类型、发生时间戳）持久化存储至风险记录主表（字段含作业ID、风险点描述、控制措施建议、处理状态、通知记录），同时更新作业风险画像数据实体。系统通过集成elink、短信网关服务（调用第三方通信平台API，支持高并发瞬时推送，日均处理量约100-200条）生成结构化预警消息（内容含作业编号、风险摘要、紧急处理建议、时间标识），并实时发送至预设的责任人员与管理人员移动终端。用户可通过Web管理端动态查询历史预警记录（支持按时间范围、作业类型、风险等级多条件组合筛选，返回结果集包含预警时间、处理状态、关联作业概要及风险趋势统计），便于跟踪闭环处理进度与复盘分析。</t>
-  </si>
-  <si>
-    <t>主站作业风险管控知识库构建</t>
-  </si>
-  <si>
-    <t>主站作业风险管控知识库构建功能在云南智能体平台上实现，支持用户通过统一交互界面输入自动化主站作业的详细参数，包括作业类型、操作步骤、设备信息及历史违章记录（输入数据经格式校验与逻辑完整性检查，单次批量导入上限为500条记录）。系统在处理过程中实时调用平台集成的人工智能分析模型服务（依赖云端AI模型接口，每日异步调用峰值约1000次，用于风险模式识别与措施生成），基于输入数据自动辨识关键风险点并推导控制措施，同时关联外部自动化主站作业知识库（通过API定时同步基准规则库，更新周期为4小时）以强化分析准确性。生成的风险要素及评估结果持久化存储至本地知识库主表（实体字段含作业ID、风险点编码、风险描述、控制措施文本、置信度评分、关联作业类型、更新时间），并通过主站作业风险管控知识库归集模型结合多维数据模型进行薄弱点归纳与趋势分析。系统输出模块自动生成结构化检查分析报告（报告内容涵盖风险等级分布、控制措施有效性指标及改进建议，计算规则基于加权风险评分模型，结果通过平台消息中心及邮件渠道推送至指定角色），同时支持调度员批量导出待处理作业清单（生成Excel文件含作业编号、风险点摘要、处理状态、建议措施）。用户可通过多维度查询界面实时检索知识库内容（支持按作业时间范围、风险级别、设备类型、处理状态组合条件过滤，返回结果集显示风险点详情、控制措施、关联作业历史及分析评价状态），实现风险数据的快速定位与闭环管理。</t>
+    <t>菜单功能描述</t>
+  </si>
+  <si>
+    <t>硬件设备网络拓扑数据接入</t>
+  </si>
+  <si>
+    <t>从设备台账接入硬件设备网络拓扑模型</t>
+  </si>
+  <si>
+    <t>硬件设备实时数据接入</t>
+  </si>
+  <si>
+    <t>从北塔监控系统，实时采集硬件设备CPU、内存、负载率等运行数据</t>
+  </si>
+  <si>
+    <t>设备冗余配置信息数据接入</t>
+  </si>
+  <si>
+    <t>从设备台账接入设备冗余配置信息数据接入</t>
+  </si>
+  <si>
+    <t>设备实时数据清洗与转换</t>
+  </si>
+  <si>
+    <t>对原始数据进行格式化、单位统一、无效值与缺失值处理，使其符合分析功能输入要求</t>
+  </si>
+  <si>
+    <t>实时监控数据融合与对齐</t>
+  </si>
+  <si>
+    <t>将不同来源、不同时序的数据（如网络拓扑、实时监控数据）在时间戳和拓扑结构上进行对齐与关联</t>
+  </si>
+  <si>
+    <t>硬件设备数据质量校验</t>
+  </si>
+  <si>
+    <t>执行数据完整性、合理性校验并标记低质量数据</t>
+  </si>
+  <si>
+    <t>N-1分析-故障场景自动生成</t>
+  </si>
+  <si>
+    <t>根据用户指令和设备网络拓扑和设备重要性，自动生成需要模拟的N-1故障场景</t>
+  </si>
+  <si>
+    <t>关键组件故障影响分析</t>
+  </si>
+  <si>
+    <t>模拟关键组件故障，分析故障影响</t>
+  </si>
+  <si>
+    <t>关键链路可靠性分析</t>
+  </si>
+  <si>
+    <t>评估关键通信链路通道中断，对系统业务的影响</t>
+  </si>
+  <si>
+    <t>负载均衡能力分析</t>
+  </si>
+  <si>
+    <t>分析N-1情况下，系统启用负载均衡后可能发生的过载风险</t>
+  </si>
+  <si>
+    <t>关键业务系统可靠性分析</t>
+  </si>
+  <si>
+    <t>N-1分析-SCADA/AGC/AVC/计划值/出清文件等关键业务系统可靠性分析</t>
+  </si>
+  <si>
+    <t>系统响应速度与恢复能力评估分析</t>
+  </si>
+  <si>
+    <t>基于系统性能数据，评估故障后系统的自动响应速度</t>
+  </si>
+  <si>
+    <t>薄弱环节智能识别</t>
+  </si>
+  <si>
+    <t>综合所有N-1分析结果，利用规则和算法自动定位系统中的共性薄弱点和故障敏感点</t>
+  </si>
+  <si>
+    <t>风险等级综合评估分析</t>
+  </si>
+  <si>
+    <t>根据故障发生的可能性和后果的严重性，对识别出的潜在风险进行分级</t>
+  </si>
+  <si>
+    <t>风险分析关键内容生成</t>
+  </si>
+  <si>
+    <t>自动提炼核心结论，包括总体风险等级、最关键薄弱环节和急需采取的措施等内容</t>
+  </si>
+  <si>
+    <t>详细风险分析结果报告生成</t>
+  </si>
+  <si>
+    <t>将N-1分析结果、风险评估细节、性能指标等数据自动填充到报告模板对应位置</t>
+  </si>
+  <si>
+    <t>风险处置建议生成</t>
+  </si>
+  <si>
+    <t>基于知识库，针对识别出的风险和薄弱环节，自动生成改进建议</t>
+  </si>
+  <si>
+    <t>风险报告模板管理</t>
+  </si>
+  <si>
+    <t>管理可配置的运行方式风险报告模板</t>
+  </si>
+  <si>
+    <t>风险可视化仪表盘</t>
+  </si>
+  <si>
+    <t>在界面上以数据大屏形式动态展示系统整体风险态势、薄弱环节分布、关键指标等</t>
+  </si>
+  <si>
+    <t>分析图表生成</t>
+  </si>
+  <si>
+    <t>自动生成风险分布图、负载率柱状图等辅助分析图表，并嵌入报告。</t>
+  </si>
+  <si>
+    <t>外部系统接口</t>
+  </si>
+  <si>
+    <t>提供API接口，允许将分析报告和关键风险数据推送至其他系统</t>
+  </si>
+  <si>
+    <t>风险信息自动推送</t>
+  </si>
+  <si>
+    <t>将生成的高风险摘要消息通过短信等方式自动推送给相关专责。</t>
+  </si>
+  <si>
+    <t>风险处置建议问答</t>
+  </si>
+  <si>
+    <t>通过人机交互形式，提供值班人员风险处置建议</t>
+  </si>
+  <si>
+    <t>硬件设备数据采集</t>
+  </si>
+  <si>
+    <t>从运维台账收集硬件设备投运时间、型号、配置信息、技术规格等静态数据和通过北塔监控系统收集CPU、内存、磁盘I/O、网络流量等实时数据</t>
+  </si>
+  <si>
+    <t>硬件设备运维历史数据采集</t>
+  </si>
+  <si>
+    <t>从设备台账、运维日志等获取设备的定检记录、保养计划、维修历史、部件更换记录等运维历史数据</t>
+  </si>
+  <si>
+    <t>硬件设备日志数据采集</t>
+  </si>
+  <si>
+    <t>采集操作系统、应用软件、中间件等产生的系统日志、错误日志、审计日志</t>
+  </si>
+  <si>
+    <t>硬件设备数据清洗与标准化</t>
+  </si>
+  <si>
+    <t>对采集的原始数据进行清洗，处理缺失值、异常值，并将数据格式、单位统一标准化</t>
+  </si>
+  <si>
+    <t>硬件设备关联数据融合</t>
+  </si>
+  <si>
+    <t>自动建立不同数据源之间的关联关系（如将故障告警与当时的性能指标关联）</t>
+  </si>
+  <si>
+    <t>设备健康度评分</t>
+  </si>
+  <si>
+    <t>综合设备年龄、配置、负荷、运维记录等因素，通过机器学习模型，计算动态的健康度分数</t>
+  </si>
+  <si>
+    <t>硬件设备剩余寿命预测</t>
+  </si>
+  <si>
+    <t>基于设备老化模型和历史数据，使用预测性分析模型预测设备的剩余使用寿命和故障概率</t>
+  </si>
+  <si>
+    <t>多指标联合异常检测</t>
+  </si>
+  <si>
+    <t>用深度学习算法对多个性能指标进行联合分析，检测单一指标正常但组合起来异常的复杂场景</t>
+  </si>
+  <si>
+    <t>动态基线告警</t>
+  </si>
+  <si>
+    <t>自动学习设备运行模式，生成动态基线，对偏离基线的行为进行智能告警</t>
+  </si>
+  <si>
+    <t>设备日志异常自动提取识别</t>
+  </si>
+  <si>
+    <t>使用日志解析大模型技术，从海量日志中自动提取异常事件</t>
+  </si>
+  <si>
+    <t>故障根因分析定位</t>
+  </si>
+  <si>
+    <t>当发生异常或故障时，自动关联分析性能指标、配置变更、日志事件等多维数据，快速定位最可能的根本原因</t>
+  </si>
+  <si>
+    <t>全局健康状态总览</t>
+  </si>
+  <si>
+    <t>以数据大屏形式，直观展示所有设备的整体健康状态分布、高风险设备列表、当前活跃告警等</t>
+  </si>
+  <si>
+    <t>设备健康档案</t>
+  </si>
+  <si>
+    <t>为每台设备生成详细的健康档案页面，集中展示其评分、历史评估、维护记录、关联告警和预测信息</t>
+  </si>
+  <si>
+    <t>健康分析报告模板管理</t>
+  </si>
+  <si>
+    <t>管理可配置的健康分析报告模板</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备健康分析报告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备健康分析报告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含设备故障预测、运维建议和更换建议</t>
+    </r>
+  </si>
+  <si>
+    <t>硬件设备运维知识问答</t>
+  </si>
+  <si>
+    <t>通过人机交互形式，提供值班人员硬件设备运维知识问答</t>
+  </si>
+  <si>
+    <t>设备健康预警信息推送</t>
+  </si>
+  <si>
+    <t>将预警信息推送给相关运维人员</t>
+  </si>
+  <si>
+    <t>业务与网络指标数据采集采集</t>
+  </si>
+  <si>
+    <t>采集业务系统指标（如QPS、响应时间、错误率）和网络链路指标数据（如延迟、丢包率、带宽利用率）</t>
+  </si>
+  <si>
+    <t>链路日志数据采集</t>
+  </si>
+  <si>
+    <t>应用接口日志与调用链数据采集</t>
+  </si>
+  <si>
+    <t>链路数据自动化解析</t>
+  </si>
+  <si>
+    <t>将收集到的异构数据进行格式解析（JSON、XML、日志文本等）</t>
+  </si>
+  <si>
+    <t>关键链路数据自动提取</t>
+  </si>
+  <si>
+    <t>运用大模型技术对关键字段提取与映射</t>
+  </si>
+  <si>
+    <t>链路数据清洗与处理</t>
+  </si>
+  <si>
+    <t>将不同来源不同结构的数据处理为智能体能识别的数据格式</t>
+  </si>
+  <si>
+    <t>链路状态异常实时检测</t>
+  </si>
+  <si>
+    <t>自动对链路数据跳变、不变、抖动、错误值等多种异常模式的识别</t>
+  </si>
+  <si>
+    <t>链路故障故障诊断</t>
+  </si>
+  <si>
+    <t>基于链路拓扑和调用链，快速定位故障组件/接口，并结合规则库与大模型，推断出根本原因。</t>
+  </si>
+  <si>
+    <t>链路故障解决措施问答</t>
+  </si>
+  <si>
+    <t>基于知识库内容进行人机交互，辅助值班人员进行解决措施问答</t>
+  </si>
+  <si>
+    <t>系统异常风险报告模板管理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理可配置的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告模板</t>
+    </r>
+  </si>
+  <si>
+    <t>系统异常风险报告生成</t>
+  </si>
+  <si>
+    <t>自动将异常实时检测和故障诊断等内容填入系统风险报告</t>
+  </si>
+  <si>
+    <t>系统异常信息推送</t>
+  </si>
+  <si>
+    <t>将异常信息推送给相关运维人员</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统运行方式风险分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识库构建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在云南智能体平台构建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统运行方式风险分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识库</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备健康水平分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识库构建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在云南智能体平台构建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备健康水平分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识库</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据链路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与异常分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识库构建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在云南智能体平台构建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据链路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与异常分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -131,7 +595,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +604,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -288,6 +765,47 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -495,11 +1013,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -636,144 +1167,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1087,132 +1630,464 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.3274336283186" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1061946902655" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="40.5" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="40.5" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="40.5" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="54" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="409.5" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="54" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="27" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="54" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="409.5" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="27" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="409.5" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="27" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="409.5" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="40.5" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="54" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="409.5" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="40.5" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="409.5" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="54" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="409.5" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="40.5" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="54" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" ht="81" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" ht="54" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" ht="67.5" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" ht="54" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" ht="54" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" ht="47.25" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" ht="67.5" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" ht="54" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" ht="40.5" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" ht="47.25" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" ht="44.25" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" ht="63" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
